--- a/stats/stats.xlsx
+++ b/stats/stats.xlsx
@@ -461,11 +461,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="-2112565368"/>
-        <c:axId val="-2112308200"/>
+        <c:axId val="2111286952"/>
+        <c:axId val="2111289928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2112565368"/>
+        <c:axId val="2111286952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -475,7 +475,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112308200"/>
+        <c:crossAx val="2111289928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -483,7 +483,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2112308200"/>
+        <c:axId val="2111289928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -494,7 +494,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112565368"/>
+        <c:crossAx val="2111286952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -884,11 +884,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2112365896"/>
-        <c:axId val="-2112314152"/>
+        <c:axId val="2111362008"/>
+        <c:axId val="2111364984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2112365896"/>
+        <c:axId val="2111362008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -898,7 +898,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112314152"/>
+        <c:crossAx val="2111364984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -906,7 +906,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2112314152"/>
+        <c:axId val="2111364984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -936,7 +936,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112365896"/>
+        <c:crossAx val="2111362008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -988,7 +988,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1470,11 +1469,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="2119556392"/>
-        <c:axId val="2119559368"/>
+        <c:axId val="2111416696"/>
+        <c:axId val="2111419672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2119556392"/>
+        <c:axId val="2111416696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1484,7 +1483,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2119559368"/>
+        <c:crossAx val="2111419672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1492,7 +1491,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2119559368"/>
+        <c:axId val="2111419672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1503,14 +1502,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2119556392"/>
+        <c:crossAx val="2111416696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1555,7 +1553,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2045,11 +2042,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2134543400"/>
-        <c:axId val="-2134550344"/>
+        <c:axId val="2111455272"/>
+        <c:axId val="2111458248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2134543400"/>
+        <c:axId val="2111455272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2059,7 +2056,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2134550344"/>
+        <c:crossAx val="2111458248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2067,7 +2064,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2134550344"/>
+        <c:axId val="2111458248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2090,21 +2087,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2134543400"/>
+        <c:crossAx val="2111455272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>

--- a/stats/stats.xlsx
+++ b/stats/stats.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ng vs em" sheetId="2" r:id="rId1"/>
@@ -77,8 +77,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -89,13 +91,15 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -148,7 +152,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>all!$B$1</c:f>
+              <c:f>'ng vs em'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -160,10 +164,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>all!$A$2:$A$21</c:f>
+              <c:f>'ng vs em'!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>100.0</c:v>
                 </c:pt>
@@ -223,75 +227,105 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>all!$B$2:$B$21</c:f>
+              <c:f>'ng vs em'!$B$2:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>2.586</c:v>
+                  <c:v>1.864</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.293</c:v>
+                  <c:v>5.165</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.829</c:v>
+                  <c:v>9.862</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.728</c:v>
+                  <c:v>16.056</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.663</c:v>
+                  <c:v>23.82</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37.152</c:v>
+                  <c:v>33.012</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>57.791</c:v>
+                  <c:v>43.935</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>73.449</c:v>
+                  <c:v>56.26</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>89.715</c:v>
+                  <c:v>70.545</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>92.629</c:v>
+                  <c:v>85.947</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>112.34</c:v>
+                  <c:v>103.97</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>130.63</c:v>
+                  <c:v>124.785</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>152.316</c:v>
+                  <c:v>147.365</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>177.452</c:v>
+                  <c:v>184.287</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>202.935</c:v>
+                  <c:v>225.7</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>232.102</c:v>
+                  <c:v>270.585</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>262.41</c:v>
+                  <c:v>319.389</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>298.721</c:v>
+                  <c:v>371.258</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>327.525</c:v>
+                  <c:v>427.328</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>363.817</c:v>
+                  <c:v>486.441</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>550.503</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>617.864</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>689.884</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>766.121</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>845.238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -302,7 +336,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>all!$C$1</c:f>
+              <c:f>'ng vs em'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -314,10 +348,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>all!$A$2:$A$21</c:f>
+              <c:f>'ng vs em'!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>100.0</c:v>
                 </c:pt>
@@ -377,75 +411,105 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>all!$C$2:$C$21</c:f>
+              <c:f>'ng vs em'!$C$2:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>2.494</c:v>
+                  <c:v>1.697</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.807</c:v>
+                  <c:v>4.171</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.053</c:v>
+                  <c:v>9.384</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.966</c:v>
+                  <c:v>16.485</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.114</c:v>
+                  <c:v>25.624</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26.619</c:v>
+                  <c:v>35.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.578</c:v>
+                  <c:v>47.327</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41.08</c:v>
+                  <c:v>60.307</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>48.468</c:v>
+                  <c:v>74.843</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>56.157</c:v>
+                  <c:v>90.887</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>64.828</c:v>
+                  <c:v>108.644</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>74.05</c:v>
+                  <c:v>127.982</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>84.296</c:v>
+                  <c:v>148.795</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>95.065</c:v>
+                  <c:v>171.292</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>105.575</c:v>
+                  <c:v>195.719</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>117.583</c:v>
+                  <c:v>221.306</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>132.729</c:v>
+                  <c:v>248.447</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>145.749</c:v>
+                  <c:v>277.07</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>160.564</c:v>
+                  <c:v>307.691</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>174.463</c:v>
+                  <c:v>339.419</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>372.743</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>407.828</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>444.496</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>482.947</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>522.631</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -461,11 +525,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="2111286952"/>
-        <c:axId val="2111289928"/>
+        <c:axId val="-2144108664"/>
+        <c:axId val="-2143991384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2111286952"/>
+        <c:axId val="-2144108664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -475,7 +539,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111289928"/>
+        <c:crossAx val="-2143991384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -483,7 +547,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2111289928"/>
+        <c:axId val="-2143991384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -494,7 +558,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111286952"/>
+        <c:crossAx val="-2144108664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -541,11 +605,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Angular</a:t>
+              <a:t>Angular vs.</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> vs. Ember</a:t>
+              <a:t> Ember</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -565,7 +629,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>all!$B$1</c:f>
+              <c:f>'ng vs em'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -579,10 +643,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>all!$A$2:$A$21</c:f>
+              <c:f>'ng vs em'!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>100.0</c:v>
                 </c:pt>
@@ -642,75 +706,105 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>all!$B$2:$B$21</c:f>
+              <c:f>'ng vs em'!$B$2:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>2.586</c:v>
+                  <c:v>1.864</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.293</c:v>
+                  <c:v>5.165</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.829</c:v>
+                  <c:v>9.862</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.728</c:v>
+                  <c:v>16.056</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.663</c:v>
+                  <c:v>23.82</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37.152</c:v>
+                  <c:v>33.012</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>57.791</c:v>
+                  <c:v>43.935</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>73.449</c:v>
+                  <c:v>56.26</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>89.715</c:v>
+                  <c:v>70.545</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>92.629</c:v>
+                  <c:v>85.947</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>112.34</c:v>
+                  <c:v>103.97</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>130.63</c:v>
+                  <c:v>124.785</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>152.316</c:v>
+                  <c:v>147.365</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>177.452</c:v>
+                  <c:v>184.287</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>202.935</c:v>
+                  <c:v>225.7</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>232.102</c:v>
+                  <c:v>270.585</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>262.41</c:v>
+                  <c:v>319.389</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>298.721</c:v>
+                  <c:v>371.258</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>327.525</c:v>
+                  <c:v>427.328</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>363.817</c:v>
+                  <c:v>486.441</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>550.503</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>617.864</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>689.884</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>766.121</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>845.238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -722,7 +816,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>all!$C$1</c:f>
+              <c:f>'ng vs em'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -736,10 +830,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>all!$A$2:$A$21</c:f>
+              <c:f>'ng vs em'!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>100.0</c:v>
                 </c:pt>
@@ -799,75 +893,105 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>all!$C$2:$C$21</c:f>
+              <c:f>'ng vs em'!$C$2:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>2.494</c:v>
+                  <c:v>1.697</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.807</c:v>
+                  <c:v>4.171</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.053</c:v>
+                  <c:v>9.384</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.966</c:v>
+                  <c:v>16.485</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.114</c:v>
+                  <c:v>25.624</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26.619</c:v>
+                  <c:v>35.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.578</c:v>
+                  <c:v>47.327</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41.08</c:v>
+                  <c:v>60.307</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>48.468</c:v>
+                  <c:v>74.843</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>56.157</c:v>
+                  <c:v>90.887</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>64.828</c:v>
+                  <c:v>108.644</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>74.05</c:v>
+                  <c:v>127.982</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>84.296</c:v>
+                  <c:v>148.795</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>95.065</c:v>
+                  <c:v>171.292</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>105.575</c:v>
+                  <c:v>195.719</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>117.583</c:v>
+                  <c:v>221.306</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>132.729</c:v>
+                  <c:v>248.447</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>145.749</c:v>
+                  <c:v>277.07</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>160.564</c:v>
+                  <c:v>307.691</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>174.463</c:v>
+                  <c:v>339.419</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>372.743</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>407.828</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>444.496</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>482.947</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>522.631</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -884,11 +1008,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2111362008"/>
-        <c:axId val="2111364984"/>
+        <c:axId val="-2144854104"/>
+        <c:axId val="-2144869624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2111362008"/>
+        <c:axId val="-2144854104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -898,7 +1022,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111364984"/>
+        <c:crossAx val="-2144869624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -906,43 +1030,29 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2111364984"/>
+        <c:axId val="-2144869624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>seconds</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111362008"/>
+        <c:spPr>
+          <a:ln w="9525">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="-2144854104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
@@ -988,6 +1098,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1014,10 +1125,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>all!$A$2:$A$21</c:f>
+              <c:f>all!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>100.0</c:v>
                 </c:pt>
@@ -1077,75 +1188,105 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>all!$B$2:$B$21</c:f>
+              <c:f>all!$B$2:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>2.586</c:v>
+                  <c:v>1.864</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.293</c:v>
+                  <c:v>5.165</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.829</c:v>
+                  <c:v>9.862</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.728</c:v>
+                  <c:v>16.056</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.663</c:v>
+                  <c:v>23.82</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37.152</c:v>
+                  <c:v>33.012</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>57.791</c:v>
+                  <c:v>43.935</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>73.449</c:v>
+                  <c:v>56.26</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>89.715</c:v>
+                  <c:v>70.545</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>92.629</c:v>
+                  <c:v>85.947</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>112.34</c:v>
+                  <c:v>103.97</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>130.63</c:v>
+                  <c:v>124.785</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>152.316</c:v>
+                  <c:v>147.365</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>177.452</c:v>
+                  <c:v>184.287</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>202.935</c:v>
+                  <c:v>225.7</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>232.102</c:v>
+                  <c:v>270.585</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>262.41</c:v>
+                  <c:v>319.389</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>298.721</c:v>
+                  <c:v>371.258</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>327.525</c:v>
+                  <c:v>427.328</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>363.817</c:v>
+                  <c:v>486.441</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>550.503</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>617.864</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>689.884</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>766.121</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>845.238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1168,10 +1309,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>all!$A$2:$A$21</c:f>
+              <c:f>all!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>100.0</c:v>
                 </c:pt>
@@ -1231,75 +1372,105 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>all!$C$2:$C$21</c:f>
+              <c:f>all!$C$2:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>2.494</c:v>
+                  <c:v>1.697</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.807</c:v>
+                  <c:v>4.171</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.053</c:v>
+                  <c:v>9.384</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.966</c:v>
+                  <c:v>16.485</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.114</c:v>
+                  <c:v>25.624</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26.619</c:v>
+                  <c:v>35.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.578</c:v>
+                  <c:v>47.327</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41.08</c:v>
+                  <c:v>60.307</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>48.468</c:v>
+                  <c:v>74.843</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>56.157</c:v>
+                  <c:v>90.887</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>64.828</c:v>
+                  <c:v>108.644</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>74.05</c:v>
+                  <c:v>127.982</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>84.296</c:v>
+                  <c:v>148.795</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>95.065</c:v>
+                  <c:v>171.292</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>105.575</c:v>
+                  <c:v>195.719</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>117.583</c:v>
+                  <c:v>221.306</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>132.729</c:v>
+                  <c:v>248.447</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>145.749</c:v>
+                  <c:v>277.07</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>160.564</c:v>
+                  <c:v>307.691</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>174.463</c:v>
+                  <c:v>339.419</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>372.743</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>407.828</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>444.496</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>482.947</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>522.631</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1322,10 +1493,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>all!$A$2:$A$21</c:f>
+              <c:f>all!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>100.0</c:v>
                 </c:pt>
@@ -1385,75 +1556,105 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>all!$D$2:$D$21</c:f>
+              <c:f>all!$D$2:$D$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>1.878</c:v>
+                  <c:v>1.516</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.801</c:v>
+                  <c:v>3.195</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.159</c:v>
+                  <c:v>5.611</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.32</c:v>
+                  <c:v>8.846</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.929</c:v>
+                  <c:v>12.412</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.993</c:v>
+                  <c:v>16.482</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27.4</c:v>
+                  <c:v>21.008</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33.35</c:v>
+                  <c:v>26.078</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40.175</c:v>
+                  <c:v>31.578</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>47.644</c:v>
+                  <c:v>37.593</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>55.583</c:v>
+                  <c:v>44.136</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>63.031</c:v>
+                  <c:v>51.371</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>71.541</c:v>
+                  <c:v>58.686</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>80.123</c:v>
+                  <c:v>66.471</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>89.67400000000001</c:v>
+                  <c:v>74.462</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>99.66</c:v>
+                  <c:v>83.539</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>110.457</c:v>
+                  <c:v>93.1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>120.449</c:v>
+                  <c:v>102.709</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>135.153</c:v>
+                  <c:v>112.867</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>174.677</c:v>
+                  <c:v>133.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>167.341</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>202.888</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>240.468</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>279.328</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>319.846</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1469,11 +1670,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="2111416696"/>
-        <c:axId val="2111419672"/>
+        <c:axId val="2086475784"/>
+        <c:axId val="2086478760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2111416696"/>
+        <c:axId val="2086475784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1483,7 +1684,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111419672"/>
+        <c:crossAx val="2086478760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1491,7 +1692,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2111419672"/>
+        <c:axId val="2086478760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1502,13 +1703,14 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111416696"/>
+        <c:crossAx val="2086475784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1553,6 +1755,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1580,10 +1783,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>all!$A$2:$A$21</c:f>
+              <c:f>all!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>100.0</c:v>
                 </c:pt>
@@ -1643,75 +1846,105 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>all!$B$2:$B$21</c:f>
+              <c:f>all!$B$2:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>2.586</c:v>
+                  <c:v>1.864</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.293</c:v>
+                  <c:v>5.165</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.829</c:v>
+                  <c:v>9.862</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.728</c:v>
+                  <c:v>16.056</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.663</c:v>
+                  <c:v>23.82</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37.152</c:v>
+                  <c:v>33.012</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>57.791</c:v>
+                  <c:v>43.935</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>73.449</c:v>
+                  <c:v>56.26</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>89.715</c:v>
+                  <c:v>70.545</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>92.629</c:v>
+                  <c:v>85.947</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>112.34</c:v>
+                  <c:v>103.97</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>130.63</c:v>
+                  <c:v>124.785</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>152.316</c:v>
+                  <c:v>147.365</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>177.452</c:v>
+                  <c:v>184.287</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>202.935</c:v>
+                  <c:v>225.7</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>232.102</c:v>
+                  <c:v>270.585</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>262.41</c:v>
+                  <c:v>319.389</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>298.721</c:v>
+                  <c:v>371.258</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>327.525</c:v>
+                  <c:v>427.328</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>363.817</c:v>
+                  <c:v>486.441</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>550.503</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>617.864</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>689.884</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>766.121</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>845.238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1737,10 +1970,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>all!$A$2:$A$21</c:f>
+              <c:f>all!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>100.0</c:v>
                 </c:pt>
@@ -1800,75 +2033,105 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>all!$C$2:$C$21</c:f>
+              <c:f>all!$C$2:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>2.494</c:v>
+                  <c:v>1.697</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.807</c:v>
+                  <c:v>4.171</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.053</c:v>
+                  <c:v>9.384</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.966</c:v>
+                  <c:v>16.485</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.114</c:v>
+                  <c:v>25.624</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26.619</c:v>
+                  <c:v>35.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.578</c:v>
+                  <c:v>47.327</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41.08</c:v>
+                  <c:v>60.307</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>48.468</c:v>
+                  <c:v>74.843</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>56.157</c:v>
+                  <c:v>90.887</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>64.828</c:v>
+                  <c:v>108.644</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>74.05</c:v>
+                  <c:v>127.982</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>84.296</c:v>
+                  <c:v>148.795</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>95.065</c:v>
+                  <c:v>171.292</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>105.575</c:v>
+                  <c:v>195.719</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>117.583</c:v>
+                  <c:v>221.306</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>132.729</c:v>
+                  <c:v>248.447</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>145.749</c:v>
+                  <c:v>277.07</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>160.564</c:v>
+                  <c:v>307.691</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>174.463</c:v>
+                  <c:v>339.419</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>372.743</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>407.828</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>444.496</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>482.947</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>522.631</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1894,10 +2157,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>all!$A$2:$A$21</c:f>
+              <c:f>all!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>100.0</c:v>
                 </c:pt>
@@ -1957,75 +2220,105 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>all!$D$2:$D$21</c:f>
+              <c:f>all!$D$2:$D$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>1.878</c:v>
+                  <c:v>1.516</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.801</c:v>
+                  <c:v>3.195</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.159</c:v>
+                  <c:v>5.611</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.32</c:v>
+                  <c:v>8.846</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.929</c:v>
+                  <c:v>12.412</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.993</c:v>
+                  <c:v>16.482</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27.4</c:v>
+                  <c:v>21.008</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33.35</c:v>
+                  <c:v>26.078</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40.175</c:v>
+                  <c:v>31.578</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>47.644</c:v>
+                  <c:v>37.593</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>55.583</c:v>
+                  <c:v>44.136</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>63.031</c:v>
+                  <c:v>51.371</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>71.541</c:v>
+                  <c:v>58.686</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>80.123</c:v>
+                  <c:v>66.471</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>89.67400000000001</c:v>
+                  <c:v>74.462</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>99.66</c:v>
+                  <c:v>83.539</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>110.457</c:v>
+                  <c:v>93.1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>120.449</c:v>
+                  <c:v>102.709</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>135.153</c:v>
+                  <c:v>112.867</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>174.677</c:v>
+                  <c:v>133.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>167.341</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>202.888</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>240.468</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>279.328</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>319.846</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2042,11 +2335,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2111455272"/>
-        <c:axId val="2111458248"/>
+        <c:axId val="2086514584"/>
+        <c:axId val="2086517560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2111455272"/>
+        <c:axId val="2086514584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2056,7 +2349,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111458248"/>
+        <c:crossAx val="2086517560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2064,42 +2357,30 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2111458248"/>
+        <c:axId val="2086517560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>seconds</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111455272"/>
+        <c:spPr>
+          <a:ln w="9525">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="2086514584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2118,23 +2399,21 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2152,21 +2431,19 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2570,10 +2847,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+    <sheetView showRuler="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2594,10 +2871,10 @@
         <v>100</v>
       </c>
       <c r="B2">
-        <v>2.5859999999999999</v>
+        <v>1.8640000000000001</v>
       </c>
       <c r="C2">
-        <v>2.4940000000000002</v>
+        <v>1.6970000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2606,10 +2883,10 @@
         <v>200</v>
       </c>
       <c r="B3">
-        <v>6.2930000000000001</v>
+        <v>5.165</v>
       </c>
       <c r="C3">
-        <v>5.8070000000000004</v>
+        <v>4.1710000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2618,10 +2895,10 @@
         <v>300</v>
       </c>
       <c r="B4">
-        <v>11.829000000000001</v>
+        <v>9.8620000000000001</v>
       </c>
       <c r="C4">
-        <v>10.053000000000001</v>
+        <v>9.3840000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2630,10 +2907,10 @@
         <v>400</v>
       </c>
       <c r="B5">
-        <v>18.728000000000002</v>
+        <v>16.056000000000001</v>
       </c>
       <c r="C5">
-        <v>14.965999999999999</v>
+        <v>16.484999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2642,10 +2919,10 @@
         <v>500</v>
       </c>
       <c r="B6">
-        <v>27.663</v>
+        <v>23.82</v>
       </c>
       <c r="C6">
-        <v>20.114000000000001</v>
+        <v>25.623999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2654,10 +2931,10 @@
         <v>600</v>
       </c>
       <c r="B7">
-        <v>37.152000000000001</v>
+        <v>33.012</v>
       </c>
       <c r="C7">
-        <v>26.619</v>
+        <v>35.6</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2666,10 +2943,10 @@
         <v>700</v>
       </c>
       <c r="B8">
-        <v>57.790999999999997</v>
+        <v>43.935000000000002</v>
       </c>
       <c r="C8">
-        <v>33.578000000000003</v>
+        <v>47.326999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2678,10 +2955,10 @@
         <v>800</v>
       </c>
       <c r="B9">
-        <v>73.448999999999998</v>
+        <v>56.26</v>
       </c>
       <c r="C9">
-        <v>41.08</v>
+        <v>60.307000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2690,10 +2967,10 @@
         <v>900</v>
       </c>
       <c r="B10">
-        <v>89.715000000000003</v>
+        <v>70.545000000000002</v>
       </c>
       <c r="C10">
-        <v>48.468000000000004</v>
+        <v>74.843000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2702,10 +2979,10 @@
         <v>1000</v>
       </c>
       <c r="B11">
-        <v>92.629000000000005</v>
+        <v>85.947000000000003</v>
       </c>
       <c r="C11">
-        <v>56.156999999999996</v>
+        <v>90.887</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2714,10 +2991,10 @@
         <v>1100</v>
       </c>
       <c r="B12">
-        <v>112.34</v>
+        <v>103.97</v>
       </c>
       <c r="C12">
-        <v>64.828000000000003</v>
+        <v>108.64400000000001</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2726,10 +3003,10 @@
         <v>1200</v>
       </c>
       <c r="B13">
-        <v>130.63</v>
+        <v>124.785</v>
       </c>
       <c r="C13">
-        <v>74.05</v>
+        <v>127.982</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2738,10 +3015,10 @@
         <v>1300</v>
       </c>
       <c r="B14">
-        <v>152.316</v>
+        <v>147.36500000000001</v>
       </c>
       <c r="C14">
-        <v>84.296000000000006</v>
+        <v>148.79499999999999</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2750,10 +3027,10 @@
         <v>1400</v>
       </c>
       <c r="B15">
-        <v>177.452</v>
+        <v>184.28700000000001</v>
       </c>
       <c r="C15">
-        <v>95.064999999999998</v>
+        <v>171.292</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2762,10 +3039,10 @@
         <v>1500</v>
       </c>
       <c r="B16">
-        <v>202.935</v>
+        <v>225.7</v>
       </c>
       <c r="C16">
-        <v>105.575</v>
+        <v>195.71899999999999</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2774,10 +3051,10 @@
         <v>1600</v>
       </c>
       <c r="B17">
-        <v>232.102</v>
+        <v>270.58499999999998</v>
       </c>
       <c r="C17">
-        <v>117.583</v>
+        <v>221.30600000000001</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2786,10 +3063,10 @@
         <v>1700</v>
       </c>
       <c r="B18">
-        <v>262.41000000000003</v>
+        <v>319.38900000000001</v>
       </c>
       <c r="C18">
-        <v>132.72900000000001</v>
+        <v>248.447</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2798,10 +3075,10 @@
         <v>1800</v>
       </c>
       <c r="B19">
-        <v>298.721</v>
+        <v>371.25799999999998</v>
       </c>
       <c r="C19">
-        <v>145.749</v>
+        <v>277.07</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2810,10 +3087,10 @@
         <v>1900</v>
       </c>
       <c r="B20">
-        <v>327.52499999999998</v>
+        <v>427.32799999999997</v>
       </c>
       <c r="C20">
-        <v>160.56399999999999</v>
+        <v>307.69099999999997</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2822,14 +3099,75 @@
         <v>2000</v>
       </c>
       <c r="B21">
-        <v>363.81700000000001</v>
+        <v>486.44099999999997</v>
       </c>
       <c r="C21">
-        <v>174.46299999999999</v>
+        <v>339.41899999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <f t="shared" ref="A22:A26" si="1">$A21 + 100</f>
+        <v>2100</v>
+      </c>
+      <c r="B22">
+        <v>550.50300000000004</v>
+      </c>
+      <c r="C22">
+        <v>372.74299999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <f t="shared" si="1"/>
+        <v>2200</v>
+      </c>
+      <c r="B23">
+        <v>617.86400000000003</v>
+      </c>
+      <c r="C23">
+        <v>407.82799999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <f t="shared" si="1"/>
+        <v>2300</v>
+      </c>
+      <c r="B24">
+        <v>689.88400000000001</v>
+      </c>
+      <c r="C24">
+        <v>444.49599999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <f t="shared" si="1"/>
+        <v>2400</v>
+      </c>
+      <c r="B25">
+        <v>766.12099999999998</v>
+      </c>
+      <c r="C25">
+        <v>482.947</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <f t="shared" si="1"/>
+        <v>2500</v>
+      </c>
+      <c r="B26">
+        <v>845.23800000000006</v>
+      </c>
+      <c r="C26">
+        <v>522.63099999999997</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -2841,10 +3179,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2868,13 +3206,13 @@
         <v>100</v>
       </c>
       <c r="B2">
-        <v>2.5859999999999999</v>
+        <v>1.8640000000000001</v>
       </c>
       <c r="C2">
-        <v>2.4940000000000002</v>
+        <v>1.6970000000000001</v>
       </c>
       <c r="D2">
-        <v>1.8779999999999999</v>
+        <v>1.516</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2883,13 +3221,13 @@
         <v>200</v>
       </c>
       <c r="B3">
-        <v>6.2930000000000001</v>
+        <v>5.165</v>
       </c>
       <c r="C3">
-        <v>5.8070000000000004</v>
+        <v>4.1710000000000003</v>
       </c>
       <c r="D3">
-        <v>4.8010000000000002</v>
+        <v>3.1949999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2898,13 +3236,13 @@
         <v>300</v>
       </c>
       <c r="B4">
-        <v>11.829000000000001</v>
+        <v>9.8620000000000001</v>
       </c>
       <c r="C4">
-        <v>10.053000000000001</v>
+        <v>9.3840000000000003</v>
       </c>
       <c r="D4">
-        <v>8.1590000000000007</v>
+        <v>5.6109999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2913,13 +3251,13 @@
         <v>400</v>
       </c>
       <c r="B5">
-        <v>18.728000000000002</v>
+        <v>16.056000000000001</v>
       </c>
       <c r="C5">
-        <v>14.965999999999999</v>
+        <v>16.484999999999999</v>
       </c>
       <c r="D5">
-        <v>12.32</v>
+        <v>8.8460000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2928,13 +3266,13 @@
         <v>500</v>
       </c>
       <c r="B6">
-        <v>27.663</v>
+        <v>23.82</v>
       </c>
       <c r="C6">
-        <v>20.114000000000001</v>
+        <v>25.623999999999999</v>
       </c>
       <c r="D6">
-        <v>16.928999999999998</v>
+        <v>12.412000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2943,13 +3281,13 @@
         <v>600</v>
       </c>
       <c r="B7">
-        <v>37.152000000000001</v>
+        <v>33.012</v>
       </c>
       <c r="C7">
-        <v>26.619</v>
+        <v>35.6</v>
       </c>
       <c r="D7">
-        <v>21.992999999999999</v>
+        <v>16.481999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2958,13 +3296,13 @@
         <v>700</v>
       </c>
       <c r="B8">
-        <v>57.790999999999997</v>
+        <v>43.935000000000002</v>
       </c>
       <c r="C8">
-        <v>33.578000000000003</v>
+        <v>47.326999999999998</v>
       </c>
       <c r="D8">
-        <v>27.4</v>
+        <v>21.007999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2973,13 +3311,13 @@
         <v>800</v>
       </c>
       <c r="B9">
-        <v>73.448999999999998</v>
+        <v>56.26</v>
       </c>
       <c r="C9">
-        <v>41.08</v>
+        <v>60.307000000000002</v>
       </c>
       <c r="D9">
-        <v>33.35</v>
+        <v>26.077999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2988,13 +3326,13 @@
         <v>900</v>
       </c>
       <c r="B10">
-        <v>89.715000000000003</v>
+        <v>70.545000000000002</v>
       </c>
       <c r="C10">
-        <v>48.468000000000004</v>
+        <v>74.843000000000004</v>
       </c>
       <c r="D10">
-        <v>40.174999999999997</v>
+        <v>31.577999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3003,13 +3341,13 @@
         <v>1000</v>
       </c>
       <c r="B11">
-        <v>92.629000000000005</v>
+        <v>85.947000000000003</v>
       </c>
       <c r="C11">
-        <v>56.156999999999996</v>
+        <v>90.887</v>
       </c>
       <c r="D11">
-        <v>47.643999999999998</v>
+        <v>37.593000000000004</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3018,13 +3356,13 @@
         <v>1100</v>
       </c>
       <c r="B12">
-        <v>112.34</v>
+        <v>103.97</v>
       </c>
       <c r="C12">
-        <v>64.828000000000003</v>
+        <v>108.64400000000001</v>
       </c>
       <c r="D12">
-        <v>55.582999999999998</v>
+        <v>44.136000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3033,13 +3371,13 @@
         <v>1200</v>
       </c>
       <c r="B13">
-        <v>130.63</v>
+        <v>124.785</v>
       </c>
       <c r="C13">
-        <v>74.05</v>
+        <v>127.982</v>
       </c>
       <c r="D13">
-        <v>63.030999999999999</v>
+        <v>51.371000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3048,13 +3386,13 @@
         <v>1300</v>
       </c>
       <c r="B14">
-        <v>152.316</v>
+        <v>147.36500000000001</v>
       </c>
       <c r="C14">
-        <v>84.296000000000006</v>
+        <v>148.79499999999999</v>
       </c>
       <c r="D14">
-        <v>71.540999999999997</v>
+        <v>58.686</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3063,13 +3401,13 @@
         <v>1400</v>
       </c>
       <c r="B15">
-        <v>177.452</v>
+        <v>184.28700000000001</v>
       </c>
       <c r="C15">
-        <v>95.064999999999998</v>
+        <v>171.292</v>
       </c>
       <c r="D15">
-        <v>80.123000000000005</v>
+        <v>66.471000000000004</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3078,13 +3416,13 @@
         <v>1500</v>
       </c>
       <c r="B16">
-        <v>202.935</v>
+        <v>225.7</v>
       </c>
       <c r="C16">
-        <v>105.575</v>
+        <v>195.71899999999999</v>
       </c>
       <c r="D16">
-        <v>89.674000000000007</v>
+        <v>74.462000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3093,13 +3431,13 @@
         <v>1600</v>
       </c>
       <c r="B17">
-        <v>232.102</v>
+        <v>270.58499999999998</v>
       </c>
       <c r="C17">
-        <v>117.583</v>
+        <v>221.30600000000001</v>
       </c>
       <c r="D17">
-        <v>99.66</v>
+        <v>83.539000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3108,13 +3446,13 @@
         <v>1700</v>
       </c>
       <c r="B18">
-        <v>262.41000000000003</v>
+        <v>319.38900000000001</v>
       </c>
       <c r="C18">
-        <v>132.72900000000001</v>
+        <v>248.447</v>
       </c>
       <c r="D18">
-        <v>110.45699999999999</v>
+        <v>93.1</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3123,13 +3461,13 @@
         <v>1800</v>
       </c>
       <c r="B19">
-        <v>298.721</v>
+        <v>371.25799999999998</v>
       </c>
       <c r="C19">
-        <v>145.749</v>
+        <v>277.07</v>
       </c>
       <c r="D19">
-        <v>120.449</v>
+        <v>102.709</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3138,13 +3476,13 @@
         <v>1900</v>
       </c>
       <c r="B20">
-        <v>327.52499999999998</v>
+        <v>427.32799999999997</v>
       </c>
       <c r="C20">
-        <v>160.56399999999999</v>
+        <v>307.69099999999997</v>
       </c>
       <c r="D20">
-        <v>135.15299999999999</v>
+        <v>112.867</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3153,13 +3491,88 @@
         <v>2000</v>
       </c>
       <c r="B21">
-        <v>363.81700000000001</v>
+        <v>486.44099999999997</v>
       </c>
       <c r="C21">
-        <v>174.46299999999999</v>
+        <v>339.41899999999998</v>
       </c>
       <c r="D21">
-        <v>174.67699999999999</v>
+        <v>133.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <f t="shared" ref="A22:A26" si="1">$A21 + 100</f>
+        <v>2100</v>
+      </c>
+      <c r="B22">
+        <v>550.50300000000004</v>
+      </c>
+      <c r="C22">
+        <v>372.74299999999999</v>
+      </c>
+      <c r="D22">
+        <v>167.34100000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <f t="shared" si="1"/>
+        <v>2200</v>
+      </c>
+      <c r="B23">
+        <v>617.86400000000003</v>
+      </c>
+      <c r="C23">
+        <v>407.82799999999997</v>
+      </c>
+      <c r="D23">
+        <v>202.88800000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <f t="shared" si="1"/>
+        <v>2300</v>
+      </c>
+      <c r="B24">
+        <v>689.88400000000001</v>
+      </c>
+      <c r="C24">
+        <v>444.49599999999998</v>
+      </c>
+      <c r="D24">
+        <v>240.46799999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <f t="shared" si="1"/>
+        <v>2400</v>
+      </c>
+      <c r="B25">
+        <v>766.12099999999998</v>
+      </c>
+      <c r="C25">
+        <v>482.947</v>
+      </c>
+      <c r="D25">
+        <v>279.32799999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <f t="shared" si="1"/>
+        <v>2500</v>
+      </c>
+      <c r="B26">
+        <v>845.23800000000006</v>
+      </c>
+      <c r="C26">
+        <v>522.63099999999997</v>
+      </c>
+      <c r="D26">
+        <v>319.846</v>
       </c>
     </row>
   </sheetData>

--- a/stats/stats.xlsx
+++ b/stats/stats.xlsx
@@ -19,12 +19,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Ember</t>
   </si>
   <si>
     <t>Angular</t>
+  </si>
+  <si>
+    <t>Knockout</t>
   </si>
 </sst>
 </file>
@@ -130,13 +133,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Angular</a:t>
+              <a:t>Rate @ 50</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> vs. Ember</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -154,7 +152,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Ember 1.4</c:v>
+            <c:v>Ember</c:v>
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -360,7 +358,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Angular 1.2</c:v>
+            <c:v>Angular</c:v>
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -557,6 +555,212 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>159.932589999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Knockout 3.0.0</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2600.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2700.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2800.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>2.3030460000009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.64736899999843</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.99755699999514</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.32303100000717</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.6687160000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.0283469999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.4621929999993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.9707930000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21.5496399999974</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24.2176360000012</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26.8630379999958</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30.3096630000072</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>33.895463000008</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37.5980640000052</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41.3601270000071</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45.2322339999955</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>49.2524019999982</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>53.3976410000032</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>57.6004510000057</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>61.9763249999959</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>66.4781159999984</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>71.1974069999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>75.9332960000028</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>80.7662689999997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>85.70317100000101</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>90.7392430000036</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>96.0147940000024</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>100.621606</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>106.164929000005</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>111.82862</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -571,11 +775,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2110412584"/>
-        <c:axId val="-2144239784"/>
+        <c:axId val="2098524936"/>
+        <c:axId val="2098532056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2110412584"/>
+        <c:axId val="2098524936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -609,7 +813,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144239784"/>
+        <c:crossAx val="2098532056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -617,7 +821,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2144239784"/>
+        <c:axId val="2098532056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -647,7 +851,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110412584"/>
+        <c:crossAx val="2098524936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1026,23 +1230,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>100</v>
       </c>
@@ -1052,8 +1259,11 @@
       <c r="C2">
         <v>2.3059680000005698</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <v>2.3030460000008999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <f>A2 + 100</f>
         <v>200</v>
@@ -1064,8 +1274,11 @@
       <c r="C3">
         <v>4.6888949999993201</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>4.64736899999843</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <f t="shared" ref="A4:A31" si="0">A3 + 100</f>
         <v>300</v>
@@ -1076,8 +1289,11 @@
       <c r="C4">
         <v>7.2121340000012397</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>6.9975569999951404</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>400</v>
@@ -1088,8 +1304,11 @@
       <c r="C5">
         <v>9.9168689999933104</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>9.3230310000071697</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>500</v>
@@ -1100,8 +1319,11 @@
       <c r="C6">
         <v>12.815823999990201</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6">
+        <v>11.668716000000099</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>600</v>
@@ -1112,8 +1334,11 @@
       <c r="C7">
         <v>15.940770000001001</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7">
+        <v>14.0283469999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>700</v>
@@ -1124,8 +1349,11 @@
       <c r="C8">
         <v>19.286947000000499</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8">
+        <v>16.462192999999299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>800</v>
@@ -1136,8 +1364,11 @@
       <c r="C9">
         <v>22.859349999998798</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9">
+        <v>18.970793000000398</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>900</v>
@@ -1148,8 +1379,11 @@
       <c r="C10">
         <v>26.530724999989602</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10">
+        <v>21.5496399999974</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>1000</v>
@@ -1160,8 +1394,11 @@
       <c r="C11">
         <v>30.461471000002302</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11">
+        <v>24.2176360000012</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>1100</v>
@@ -1172,8 +1409,11 @@
       <c r="C12">
         <v>34.6916879999917</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12">
+        <v>26.8630379999958</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>1200</v>
@@ -1184,8 +1424,11 @@
       <c r="C13">
         <v>39.053764999989603</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13">
+        <v>30.309663000007198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>1300</v>
@@ -1196,8 +1439,11 @@
       <c r="C14">
         <v>43.638800999993599</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14">
+        <v>33.895463000008</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>1400</v>
@@ -1208,8 +1454,11 @@
       <c r="C15">
         <v>48.528304999999797</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15">
+        <v>37.598064000005202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>1500</v>
@@ -1220,8 +1469,11 @@
       <c r="C16">
         <v>53.624559999996499</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16">
+        <v>41.360127000007097</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>1600</v>
@@ -1232,8 +1484,11 @@
       <c r="C17">
         <v>58.959447000000999</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>45.232233999995501</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>1700</v>
@@ -1244,8 +1499,11 @@
       <c r="C18">
         <v>64.733485999997299</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>49.252401999998199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>1800</v>
@@ -1256,8 +1514,11 @@
       <c r="C19">
         <v>70.506054999990695</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>53.397641000003198</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>1900</v>
@@ -1268,8 +1529,11 @@
       <c r="C20">
         <v>76.481748999998601</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20">
+        <v>57.600451000005698</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>2000</v>
@@ -1280,8 +1544,11 @@
       <c r="C21">
         <v>82.745977999991695</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21">
+        <v>61.976324999995903</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>2100</v>
@@ -1292,8 +1559,11 @@
       <c r="C22">
         <v>89.393891999992704</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22">
+        <v>66.478115999998394</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>2200</v>
@@ -1304,8 +1574,11 @@
       <c r="C23">
         <v>96.178527999989399</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23">
+        <v>71.1974069999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>2300</v>
@@ -1316,8 +1589,11 @@
       <c r="C24">
         <v>103.23743399999501</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24">
+        <v>75.933296000002798</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>2400</v>
@@ -1328,8 +1604,11 @@
       <c r="C25">
         <v>110.614707</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25">
+        <v>80.766268999999696</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>2500</v>
@@ -1340,8 +1619,11 @@
       <c r="C26">
         <v>118.093577999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26">
+        <v>85.703171000001007</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>2600</v>
@@ -1352,8 +1634,11 @@
       <c r="C27">
         <v>125.925954999998</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>90.739243000003597</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>2700</v>
@@ -1364,8 +1649,11 @@
       <c r="C28">
         <v>134.008726999993</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28">
+        <v>96.014794000002397</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>2800</v>
@@ -1376,8 +1664,11 @@
       <c r="C29">
         <v>142.39921199998901</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29">
+        <v>100.621606</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>2900</v>
@@ -1388,8 +1679,11 @@
       <c r="C30">
         <v>151.000535999992</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30">
+        <v>106.164929000005</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>3000</v>
@@ -1400,8 +1694,11 @@
       <c r="C31">
         <v>159.932589999996</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31">
+        <v>111.82862</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="B32" s="1"/>
     </row>
   </sheetData>

--- a/stats/stats.xlsx
+++ b/stats/stats.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Ember</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>Knockout</t>
+  </si>
+  <si>
+    <t>React</t>
   </si>
 </sst>
 </file>
@@ -152,7 +155,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Ember</c:v>
+            <c:v>Ember 1.4</c:v>
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -358,7 +361,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Angular</c:v>
+            <c:v>Angular 1.2</c:v>
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -766,6 +769,212 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>React 0.9</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2600.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2700.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2800.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>2.91964100000041</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.37661000000662</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.446729999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.1184289999946</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.3951030000025</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41.3980580000061</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>54.0062230000039</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>68.7682150000036</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>85.3735410000081</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>103.429596999994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>123.071525000006</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>144.381513</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>167.887342999994</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>192.869852999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>219.600653000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>248.655073000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>279.432111000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>311.738962000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>346.529853</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>382.901582000005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>421.111676</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>461.493927999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>503.191802999994</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>547.435169999997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>593.583595000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>641.382868999993</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>691.2171859999939</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>742.653491000004</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>796.510957000005</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>851.715095000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -775,11 +984,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2098524936"/>
-        <c:axId val="2098532056"/>
+        <c:axId val="2066441592"/>
+        <c:axId val="2066448712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2098524936"/>
+        <c:axId val="2066441592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -813,7 +1022,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2098532056"/>
+        <c:crossAx val="2066448712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -821,7 +1030,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2098532056"/>
+        <c:axId val="2066448712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -851,7 +1060,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2098524936"/>
+        <c:crossAx val="2066441592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -877,16 +1086,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1230,15 +1439,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1248,8 +1457,11 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>100</v>
       </c>
@@ -1262,8 +1474,11 @@
       <c r="D2">
         <v>2.3030460000008999</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>2.9196410000004098</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <f>A2 + 100</f>
         <v>200</v>
@@ -1277,8 +1492,11 @@
       <c r="D3">
         <v>4.64736899999843</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>7.3766100000066199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <f t="shared" ref="A4:A31" si="0">A3 + 100</f>
         <v>300</v>
@@ -1292,8 +1510,11 @@
       <c r="D4">
         <v>6.9975569999951404</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <v>13.446729999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>400</v>
@@ -1307,8 +1528,11 @@
       <c r="D5">
         <v>9.3230310000071697</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>21.118428999994599</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>500</v>
@@ -1322,8 +1546,11 @@
       <c r="D6">
         <v>11.668716000000099</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <v>30.3951030000025</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>600</v>
@@ -1337,8 +1564,11 @@
       <c r="D7">
         <v>14.0283469999994</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <v>41.398058000006102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>700</v>
@@ -1352,8 +1582,11 @@
       <c r="D8">
         <v>16.462192999999299</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8">
+        <v>54.006223000003899</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>800</v>
@@ -1367,8 +1600,11 @@
       <c r="D9">
         <v>18.970793000000398</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9">
+        <v>68.768215000003593</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>900</v>
@@ -1382,8 +1618,11 @@
       <c r="D10">
         <v>21.5496399999974</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10">
+        <v>85.373541000008103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>1000</v>
@@ -1397,8 +1636,11 @@
       <c r="D11">
         <v>24.2176360000012</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11">
+        <v>103.429596999994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>1100</v>
@@ -1412,8 +1654,11 @@
       <c r="D12">
         <v>26.8630379999958</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12">
+        <v>123.07152500000601</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>1200</v>
@@ -1427,8 +1672,11 @@
       <c r="D13">
         <v>30.309663000007198</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13">
+        <v>144.38151300000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>1300</v>
@@ -1442,8 +1690,11 @@
       <c r="D14">
         <v>33.895463000008</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14">
+        <v>167.88734299999399</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>1400</v>
@@ -1457,8 +1708,11 @@
       <c r="D15">
         <v>37.598064000005202</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>192.869852999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>1500</v>
@@ -1472,8 +1726,11 @@
       <c r="D16">
         <v>41.360127000007097</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16">
+        <v>219.60065300000099</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>1600</v>
@@ -1487,8 +1744,11 @@
       <c r="D17">
         <v>45.232233999995501</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>248.65507300000101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>1700</v>
@@ -1502,8 +1762,11 @@
       <c r="D18">
         <v>49.252401999998199</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>279.43211100000099</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>1800</v>
@@ -1517,8 +1780,11 @@
       <c r="D19">
         <v>53.397641000003198</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>311.73896200000303</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>1900</v>
@@ -1532,8 +1798,11 @@
       <c r="D20">
         <v>57.600451000005698</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20">
+        <v>346.529853</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>2000</v>
@@ -1547,8 +1816,11 @@
       <c r="D21">
         <v>61.976324999995903</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21">
+        <v>382.90158200000502</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>2100</v>
@@ -1562,8 +1834,11 @@
       <c r="D22">
         <v>66.478115999998394</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22">
+        <v>421.11167599999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>2200</v>
@@ -1577,8 +1852,11 @@
       <c r="D23">
         <v>71.1974069999996</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23">
+        <v>461.493927999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>2300</v>
@@ -1592,8 +1870,11 @@
       <c r="D24">
         <v>75.933296000002798</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24">
+        <v>503.19180299999402</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>2400</v>
@@ -1607,8 +1888,11 @@
       <c r="D25">
         <v>80.766268999999696</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25">
+        <v>547.43516999999702</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>2500</v>
@@ -1622,8 +1906,11 @@
       <c r="D26">
         <v>85.703171000001007</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26">
+        <v>593.58359500000302</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>2600</v>
@@ -1637,8 +1924,11 @@
       <c r="D27">
         <v>90.739243000003597</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>641.38286899999298</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>2700</v>
@@ -1652,8 +1942,11 @@
       <c r="D28">
         <v>96.014794000002397</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28">
+        <v>691.21718599999394</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>2800</v>
@@ -1667,8 +1960,11 @@
       <c r="D29">
         <v>100.621606</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29">
+        <v>742.65349100000401</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>2900</v>
@@ -1682,8 +1978,11 @@
       <c r="D30">
         <v>106.164929000005</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30">
+        <v>796.51095700000496</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>3000</v>
@@ -1697,8 +1996,11 @@
       <c r="D31">
         <v>111.82862</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31">
+        <v>851.71509500000604</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="B32" s="1"/>
     </row>
   </sheetData>

--- a/stats/stats.xlsx
+++ b/stats/stats.xlsx
@@ -118,10 +118,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="18"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -882,94 +882,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>2.91964100000041</c:v>
+                  <c:v>2.25683899999421</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.37661000000662</c:v>
+                  <c:v>4.52111599998897</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.446729999996</c:v>
+                  <c:v>7.01030799999716</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.1184289999946</c:v>
+                  <c:v>9.810107999990571</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30.3951030000025</c:v>
+                  <c:v>12.9935859999968</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41.3980580000061</c:v>
+                  <c:v>16.4373559999949</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>54.0062230000039</c:v>
+                  <c:v>20.2479359999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>68.7682150000036</c:v>
+                  <c:v>24.2948179999948</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>85.3735410000081</c:v>
+                  <c:v>28.7926759999973</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>103.429596999994</c:v>
+                  <c:v>33.6440690000017</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>123.071525000006</c:v>
+                  <c:v>38.9572990000015</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>144.381513</c:v>
+                  <c:v>44.5030499999993</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>167.887342999994</c:v>
+                  <c:v>50.3949319999956</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>192.869852999996</c:v>
+                  <c:v>56.6365569999907</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>219.600653000001</c:v>
+                  <c:v>63.1998469999962</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>248.655073000001</c:v>
+                  <c:v>70.1122979999927</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>279.432111000001</c:v>
+                  <c:v>77.6541539999889</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>311.738962000003</c:v>
+                  <c:v>85.4920409999904</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>346.529853</c:v>
+                  <c:v>93.7806579999887</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>382.901582000005</c:v>
+                  <c:v>102.385813999993</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>421.111676</c:v>
+                  <c:v>112.468689999994</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>461.493927999996</c:v>
+                  <c:v>121.805467999991</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>503.191802999994</c:v>
+                  <c:v>131.61403099999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>547.435169999997</c:v>
+                  <c:v>141.751686999996</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>593.583595000003</c:v>
+                  <c:v>152.119379999989</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>641.382868999993</c:v>
+                  <c:v>162.840926999997</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>691.2171859999939</c:v>
+                  <c:v>173.971961999995</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>742.653491000004</c:v>
+                  <c:v>185.353944999995</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>796.510957000005</c:v>
+                  <c:v>197.227839999992</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>851.715095000006</c:v>
+                  <c:v>209.374821999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -984,11 +984,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2066441592"/>
-        <c:axId val="2066448712"/>
+        <c:axId val="2088971688"/>
+        <c:axId val="2123973400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2066441592"/>
+        <c:axId val="2088971688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1005,13 +1005,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Amount of</a:t>
+                  <a:t>Amount of Records</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Records</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1022,7 +1017,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2066448712"/>
+        <c:crossAx val="2123973400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1030,7 +1025,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2066448712"/>
+        <c:axId val="2123973400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1060,7 +1055,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2066441592"/>
+        <c:crossAx val="2088971688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1086,16 +1081,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
+      <xdr:colOff>787400</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1475,7 +1470,7 @@
         <v>2.3030460000008999</v>
       </c>
       <c r="E2">
-        <v>2.9196410000004098</v>
+        <v>2.2568389999942098</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1493,7 +1488,7 @@
         <v>4.64736899999843</v>
       </c>
       <c r="E3">
-        <v>7.3766100000066199</v>
+        <v>4.5211159999889698</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1511,7 +1506,7 @@
         <v>6.9975569999951404</v>
       </c>
       <c r="E4">
-        <v>13.446729999996</v>
+        <v>7.0103079999971598</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1529,7 +1524,7 @@
         <v>9.3230310000071697</v>
       </c>
       <c r="E5">
-        <v>21.118428999994599</v>
+        <v>9.8101079999905707</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1547,7 +1542,7 @@
         <v>11.668716000000099</v>
       </c>
       <c r="E6">
-        <v>30.3951030000025</v>
+        <v>12.9935859999968</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1565,7 +1560,7 @@
         <v>14.0283469999994</v>
       </c>
       <c r="E7">
-        <v>41.398058000006102</v>
+        <v>16.437355999994899</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1583,7 +1578,7 @@
         <v>16.462192999999299</v>
       </c>
       <c r="E8">
-        <v>54.006223000003899</v>
+        <v>20.247935999999701</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1601,7 +1596,7 @@
         <v>18.970793000000398</v>
       </c>
       <c r="E9">
-        <v>68.768215000003593</v>
+        <v>24.294817999994802</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1619,7 +1614,7 @@
         <v>21.5496399999974</v>
       </c>
       <c r="E10">
-        <v>85.373541000008103</v>
+        <v>28.7926759999973</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1637,7 +1632,7 @@
         <v>24.2176360000012</v>
       </c>
       <c r="E11">
-        <v>103.429596999994</v>
+        <v>33.6440690000017</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1655,7 +1650,7 @@
         <v>26.8630379999958</v>
       </c>
       <c r="E12">
-        <v>123.07152500000601</v>
+        <v>38.957299000001498</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1673,7 +1668,7 @@
         <v>30.309663000007198</v>
       </c>
       <c r="E13">
-        <v>144.38151300000001</v>
+        <v>44.503049999999298</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1691,7 +1686,7 @@
         <v>33.895463000008</v>
       </c>
       <c r="E14">
-        <v>167.88734299999399</v>
+        <v>50.394931999995599</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1709,7 +1704,7 @@
         <v>37.598064000005202</v>
       </c>
       <c r="E15">
-        <v>192.869852999996</v>
+        <v>56.636556999990702</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1727,7 +1722,7 @@
         <v>41.360127000007097</v>
       </c>
       <c r="E16">
-        <v>219.60065300000099</v>
+        <v>63.199846999996197</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1745,7 +1740,7 @@
         <v>45.232233999995501</v>
       </c>
       <c r="E17">
-        <v>248.65507300000101</v>
+        <v>70.112297999992705</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1763,7 +1758,7 @@
         <v>49.252401999998199</v>
       </c>
       <c r="E18">
-        <v>279.43211100000099</v>
+        <v>77.654153999988907</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1781,7 +1776,7 @@
         <v>53.397641000003198</v>
       </c>
       <c r="E19">
-        <v>311.73896200000303</v>
+        <v>85.492040999990394</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1799,7 +1794,7 @@
         <v>57.600451000005698</v>
       </c>
       <c r="E20">
-        <v>346.529853</v>
+        <v>93.780657999988705</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1817,7 +1812,7 @@
         <v>61.976324999995903</v>
       </c>
       <c r="E21">
-        <v>382.90158200000502</v>
+        <v>102.385813999993</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1835,7 +1830,7 @@
         <v>66.478115999998394</v>
       </c>
       <c r="E22">
-        <v>421.11167599999999</v>
+        <v>112.468689999994</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1853,7 +1848,7 @@
         <v>71.1974069999996</v>
       </c>
       <c r="E23">
-        <v>461.493927999996</v>
+        <v>121.805467999991</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1871,7 +1866,7 @@
         <v>75.933296000002798</v>
       </c>
       <c r="E24">
-        <v>503.19180299999402</v>
+        <v>131.61403099999001</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1889,7 +1884,7 @@
         <v>80.766268999999696</v>
       </c>
       <c r="E25">
-        <v>547.43516999999702</v>
+        <v>141.751686999996</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1907,7 +1902,7 @@
         <v>85.703171000001007</v>
       </c>
       <c r="E26">
-        <v>593.58359500000302</v>
+        <v>152.11937999998901</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1925,7 +1920,7 @@
         <v>90.739243000003597</v>
       </c>
       <c r="E27">
-        <v>641.38286899999298</v>
+        <v>162.84092699999701</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1943,7 +1938,7 @@
         <v>96.014794000002397</v>
       </c>
       <c r="E28">
-        <v>691.21718599999394</v>
+        <v>173.97196199999499</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1961,7 +1956,7 @@
         <v>100.621606</v>
       </c>
       <c r="E29">
-        <v>742.65349100000401</v>
+        <v>185.35394499999501</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1979,7 +1974,7 @@
         <v>106.164929000005</v>
       </c>
       <c r="E30">
-        <v>796.51095700000496</v>
+        <v>197.227839999992</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1997,7 +1992,7 @@
         <v>111.82862</v>
       </c>
       <c r="E31">
-        <v>851.71509500000604</v>
+        <v>209.37482199999701</v>
       </c>
     </row>
     <row r="32" spans="1:5">

--- a/stats/stats.xlsx
+++ b/stats/stats.xlsx
@@ -264,94 +264,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>3.66687899999669</c:v>
+                  <c:v>2.29023400000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.95758799999021</c:v>
+                  <c:v>4.54944200000318</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.2721729999902</c:v>
+                  <c:v>6.8264019999915</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.2921189999906</c:v>
+                  <c:v>9.09822699999495</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.3556639999878</c:v>
+                  <c:v>11.3923329999961</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.5766259999945</c:v>
+                  <c:v>13.7014930000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.0655819999956</c:v>
+                  <c:v>16.0234329999948</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33.8288309999916</c:v>
+                  <c:v>18.3126649999903</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>38.7615779999905</c:v>
+                  <c:v>20.6513169999961</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44.343241999988</c:v>
+                  <c:v>22.944239999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>49.967816999997</c:v>
+                  <c:v>25.2865619999938</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>55.9188789999898</c:v>
+                  <c:v>27.6265859999984</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>62.28180099999</c:v>
+                  <c:v>29.9653560000006</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>69.2907699999923</c:v>
+                  <c:v>32.4098299999896</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>76.7077999999892</c:v>
+                  <c:v>34.8912069999933</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>85.3721409999998</c:v>
+                  <c:v>37.4611769999901</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>94.3843229999911</c:v>
+                  <c:v>39.9626439999992</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>103.840688999989</c:v>
+                  <c:v>42.508680999992</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>113.868644999995</c:v>
+                  <c:v>45.137189999994</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>124.574116999996</c:v>
+                  <c:v>47.8311390000017</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>135.377866999988</c:v>
+                  <c:v>50.5881769999978</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>146.358882999993</c:v>
+                  <c:v>53.3732619999937</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>157.728696999998</c:v>
+                  <c:v>56.2058109999925</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>169.377899999992</c:v>
+                  <c:v>59.1130160000029</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>181.61981399999</c:v>
+                  <c:v>62.0811759999924</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>194.088393999991</c:v>
+                  <c:v>65.0537489999987</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>206.793086999998</c:v>
+                  <c:v>68.1051719999959</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>220.086448999994</c:v>
+                  <c:v>71.249364999996</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>233.409555999998</c:v>
+                  <c:v>74.4522969999961</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>246.886327</c:v>
+                  <c:v>77.7487009999895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -984,11 +984,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2088971688"/>
-        <c:axId val="2123973400"/>
+        <c:axId val="2122381016"/>
+        <c:axId val="2122374072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2088971688"/>
+        <c:axId val="2122381016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1017,7 +1017,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2123973400"/>
+        <c:crossAx val="2122374072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1025,7 +1025,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2123973400"/>
+        <c:axId val="2122374072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1055,7 +1055,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2088971688"/>
+        <c:crossAx val="2122381016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1437,7 +1437,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1461,7 +1461,7 @@
         <v>100</v>
       </c>
       <c r="B2" s="1">
-        <v>3.66687899999669</v>
+        <v>2.2902340000000501</v>
       </c>
       <c r="C2">
         <v>2.3059680000005698</v>
@@ -1479,7 +1479,7 @@
         <v>200</v>
       </c>
       <c r="B3" s="1">
-        <v>7.9575879999902099</v>
+        <v>4.5494420000031797</v>
       </c>
       <c r="C3">
         <v>4.6888949999993201</v>
@@ -1497,7 +1497,7 @@
         <v>300</v>
       </c>
       <c r="B4" s="1">
-        <v>12.2721729999902</v>
+        <v>6.8264019999915</v>
       </c>
       <c r="C4">
         <v>7.2121340000012397</v>
@@ -1515,7 +1515,7 @@
         <v>400</v>
       </c>
       <c r="B5" s="1">
-        <v>16.292118999990599</v>
+        <v>9.0982269999949494</v>
       </c>
       <c r="C5">
         <v>9.9168689999933104</v>
@@ -1533,7 +1533,7 @@
         <v>500</v>
       </c>
       <c r="B6" s="1">
-        <v>20.355663999987801</v>
+        <v>11.3923329999961</v>
       </c>
       <c r="C6">
         <v>12.815823999990201</v>
@@ -1551,7 +1551,7 @@
         <v>600</v>
       </c>
       <c r="B7" s="1">
-        <v>24.576625999994501</v>
+        <v>13.701493000000401</v>
       </c>
       <c r="C7">
         <v>15.940770000001001</v>
@@ -1569,7 +1569,7 @@
         <v>700</v>
       </c>
       <c r="B8" s="1">
-        <v>29.065581999995601</v>
+        <v>16.0234329999948</v>
       </c>
       <c r="C8">
         <v>19.286947000000499</v>
@@ -1587,7 +1587,7 @@
         <v>800</v>
       </c>
       <c r="B9" s="1">
-        <v>33.828830999991602</v>
+        <v>18.3126649999903</v>
       </c>
       <c r="C9">
         <v>22.859349999998798</v>
@@ -1605,7 +1605,7 @@
         <v>900</v>
       </c>
       <c r="B10" s="1">
-        <v>38.7615779999905</v>
+        <v>20.651316999996101</v>
       </c>
       <c r="C10">
         <v>26.530724999989602</v>
@@ -1623,7 +1623,7 @@
         <v>1000</v>
       </c>
       <c r="B11" s="1">
-        <v>44.343241999988003</v>
+        <v>22.944239999996999</v>
       </c>
       <c r="C11">
         <v>30.461471000002302</v>
@@ -1641,7 +1641,7 @@
         <v>1100</v>
       </c>
       <c r="B12" s="1">
-        <v>49.967816999996998</v>
+        <v>25.2865619999938</v>
       </c>
       <c r="C12">
         <v>34.6916879999917</v>
@@ -1659,7 +1659,7 @@
         <v>1200</v>
       </c>
       <c r="B13" s="1">
-        <v>55.918878999989801</v>
+        <v>27.626585999998401</v>
       </c>
       <c r="C13">
         <v>39.053764999989603</v>
@@ -1677,7 +1677,7 @@
         <v>1300</v>
       </c>
       <c r="B14" s="1">
-        <v>62.281800999989997</v>
+        <v>29.9653560000006</v>
       </c>
       <c r="C14">
         <v>43.638800999993599</v>
@@ -1695,7 +1695,7 @@
         <v>1400</v>
       </c>
       <c r="B15" s="1">
-        <v>69.290769999992307</v>
+        <v>32.409829999989597</v>
       </c>
       <c r="C15">
         <v>48.528304999999797</v>
@@ -1713,7 +1713,7 @@
         <v>1500</v>
       </c>
       <c r="B16" s="1">
-        <v>76.707799999989206</v>
+        <v>34.891206999993301</v>
       </c>
       <c r="C16">
         <v>53.624559999996499</v>
@@ -1731,7 +1731,7 @@
         <v>1600</v>
       </c>
       <c r="B17" s="1">
-        <v>85.3721409999998</v>
+        <v>37.461176999990101</v>
       </c>
       <c r="C17">
         <v>58.959447000000999</v>
@@ -1749,7 +1749,7 @@
         <v>1700</v>
       </c>
       <c r="B18" s="1">
-        <v>94.384322999991099</v>
+        <v>39.962643999999202</v>
       </c>
       <c r="C18">
         <v>64.733485999997299</v>
@@ -1767,7 +1767,7 @@
         <v>1800</v>
       </c>
       <c r="B19" s="1">
-        <v>103.840688999989</v>
+        <v>42.508680999992002</v>
       </c>
       <c r="C19">
         <v>70.506054999990695</v>
@@ -1785,7 +1785,7 @@
         <v>1900</v>
       </c>
       <c r="B20" s="1">
-        <v>113.868644999995</v>
+        <v>45.137189999994</v>
       </c>
       <c r="C20">
         <v>76.481748999998601</v>
@@ -1803,7 +1803,7 @@
         <v>2000</v>
       </c>
       <c r="B21" s="1">
-        <v>124.57411699999599</v>
+        <v>47.831139000001698</v>
       </c>
       <c r="C21">
         <v>82.745977999991695</v>
@@ -1821,7 +1821,7 @@
         <v>2100</v>
       </c>
       <c r="B22" s="1">
-        <v>135.37786699998799</v>
+        <v>50.588176999997799</v>
       </c>
       <c r="C22">
         <v>89.393891999992704</v>
@@ -1839,7 +1839,7 @@
         <v>2200</v>
       </c>
       <c r="B23" s="1">
-        <v>146.358882999993</v>
+        <v>53.373261999993701</v>
       </c>
       <c r="C23">
         <v>96.178527999989399</v>
@@ -1857,7 +1857,7 @@
         <v>2300</v>
       </c>
       <c r="B24" s="1">
-        <v>157.72869699999799</v>
+        <v>56.205810999992501</v>
       </c>
       <c r="C24">
         <v>103.23743399999501</v>
@@ -1875,7 +1875,7 @@
         <v>2400</v>
       </c>
       <c r="B25" s="1">
-        <v>169.377899999992</v>
+        <v>59.113016000002901</v>
       </c>
       <c r="C25">
         <v>110.614707</v>
@@ -1893,7 +1893,7 @@
         <v>2500</v>
       </c>
       <c r="B26" s="1">
-        <v>181.61981399998999</v>
+        <v>62.081175999992404</v>
       </c>
       <c r="C26">
         <v>118.093577999999</v>
@@ -1911,7 +1911,7 @@
         <v>2600</v>
       </c>
       <c r="B27" s="1">
-        <v>194.08839399999101</v>
+        <v>65.053748999998703</v>
       </c>
       <c r="C27">
         <v>125.925954999998</v>
@@ -1929,7 +1929,7 @@
         <v>2700</v>
       </c>
       <c r="B28" s="1">
-        <v>206.793086999998</v>
+        <v>68.105171999995903</v>
       </c>
       <c r="C28">
         <v>134.008726999993</v>
@@ -1947,7 +1947,7 @@
         <v>2800</v>
       </c>
       <c r="B29" s="1">
-        <v>220.08644899999399</v>
+        <v>71.249364999996004</v>
       </c>
       <c r="C29">
         <v>142.39921199998901</v>
@@ -1965,7 +1965,7 @@
         <v>2900</v>
       </c>
       <c r="B30" s="1">
-        <v>233.40955599999799</v>
+        <v>74.452296999996094</v>
       </c>
       <c r="C30">
         <v>151.000535999992</v>
@@ -1983,7 +1983,7 @@
         <v>3000</v>
       </c>
       <c r="B31" s="1">
-        <v>246.88632699999999</v>
+        <v>77.748700999989495</v>
       </c>
       <c r="C31">
         <v>159.932589999996</v>

--- a/stats/stats.xlsx
+++ b/stats/stats.xlsx
@@ -1437,7 +1437,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/stats/stats.xlsx
+++ b/stats/stats.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Ember</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>React</t>
+  </si>
+  <si>
+    <t>Basis</t>
   </si>
 </sst>
 </file>
@@ -975,6 +978,212 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>BasisJS 1.2.1</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2600.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2700.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2800.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>2.12932100000034</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.26149499999883</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.39365300000645</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.52995799999917</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.6594190000032</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.7794950000097</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.8970560000016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.0293789999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.1568210000114</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.2788370000052</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23.431036000009</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25.6175840000069</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27.8287740000087</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30.1142360000085</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32.5385640000022</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35.0100310000125</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>37.5635380000021</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40.1098860000056</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42.6691490000084</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45.4794970000075</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>48.4252190000115</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>51.3662890000123</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>54.1453340000007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>56.9216110000124</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>59.7877860000007</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>62.6584419999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>65.5739600000088</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>68.59576700000611</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>71.59594199999989</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>74.5013910000125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -984,11 +1193,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2122381016"/>
-        <c:axId val="2122374072"/>
+        <c:axId val="2079353944"/>
+        <c:axId val="2123622264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2122381016"/>
+        <c:axId val="2079353944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1017,7 +1226,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122374072"/>
+        <c:crossAx val="2123622264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1025,7 +1234,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2122374072"/>
+        <c:axId val="2123622264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1055,7 +1264,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122381016"/>
+        <c:crossAx val="2079353944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1434,15 +1643,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1455,8 +1664,11 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>100</v>
       </c>
@@ -1472,8 +1684,11 @@
       <c r="E2">
         <v>2.2568389999942098</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>2.1293210000003402</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <f>A2 + 100</f>
         <v>200</v>
@@ -1490,8 +1705,11 @@
       <c r="E3">
         <v>4.5211159999889698</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>4.2614949999988303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <f t="shared" ref="A4:A31" si="0">A3 + 100</f>
         <v>300</v>
@@ -1508,8 +1726,11 @@
       <c r="E4">
         <v>7.0103079999971598</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>6.3936530000064504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>400</v>
@@ -1526,8 +1747,11 @@
       <c r="E5">
         <v>9.8101079999905707</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>8.5299579999991693</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>500</v>
@@ -1544,8 +1768,11 @@
       <c r="E6">
         <v>12.9935859999968</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <v>10.659419000003201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>600</v>
@@ -1562,8 +1789,11 @@
       <c r="E7">
         <v>16.437355999994899</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <v>12.7794950000097</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>700</v>
@@ -1580,8 +1810,11 @@
       <c r="E8">
         <v>20.247935999999701</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <v>14.8970560000016</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>800</v>
@@ -1598,8 +1831,11 @@
       <c r="E9">
         <v>24.294817999994802</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9">
+        <v>17.029378999999601</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>900</v>
@@ -1616,8 +1852,11 @@
       <c r="E10">
         <v>28.7926759999973</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10">
+        <v>19.156821000011401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>1000</v>
@@ -1634,8 +1873,11 @@
       <c r="E11">
         <v>33.6440690000017</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11">
+        <v>21.278837000005201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>1100</v>
@@ -1652,8 +1894,11 @@
       <c r="E12">
         <v>38.957299000001498</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12">
+        <v>23.431036000009001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>1200</v>
@@ -1670,8 +1915,11 @@
       <c r="E13">
         <v>44.503049999999298</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13">
+        <v>25.6175840000069</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>1300</v>
@@ -1688,8 +1936,11 @@
       <c r="E14">
         <v>50.394931999995599</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14">
+        <v>27.8287740000087</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>1400</v>
@@ -1706,8 +1957,11 @@
       <c r="E15">
         <v>56.636556999990702</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>30.1142360000085</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>1500</v>
@@ -1724,8 +1978,11 @@
       <c r="E16">
         <v>63.199846999996197</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16">
+        <v>32.538564000002197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>1600</v>
@@ -1742,8 +1999,11 @@
       <c r="E17">
         <v>70.112297999992705</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>35.010031000012503</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>1700</v>
@@ -1760,8 +2020,11 @@
       <c r="E18">
         <v>77.654153999988907</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>37.563538000002097</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>1800</v>
@@ -1778,8 +2041,11 @@
       <c r="E19">
         <v>85.492040999990394</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>40.109886000005602</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>1900</v>
@@ -1796,8 +2062,11 @@
       <c r="E20">
         <v>93.780657999988705</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20">
+        <v>42.669149000008403</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>2000</v>
@@ -1814,8 +2083,11 @@
       <c r="E21">
         <v>102.385813999993</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21">
+        <v>45.479497000007498</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>2100</v>
@@ -1832,8 +2104,11 @@
       <c r="E22">
         <v>112.468689999994</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>48.425219000011502</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>2200</v>
@@ -1850,8 +2125,11 @@
       <c r="E23">
         <v>121.805467999991</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>51.366289000012301</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>2300</v>
@@ -1868,8 +2146,11 @@
       <c r="E24">
         <v>131.61403099999001</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24">
+        <v>54.145334000000702</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>2400</v>
@@ -1886,8 +2167,11 @@
       <c r="E25">
         <v>141.751686999996</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25">
+        <v>56.921611000012398</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>2500</v>
@@ -1904,8 +2188,11 @@
       <c r="E26">
         <v>152.11937999998901</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26">
+        <v>59.7877860000007</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>2600</v>
@@ -1922,8 +2209,11 @@
       <c r="E27">
         <v>162.84092699999701</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>62.658441999999901</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>2700</v>
@@ -1940,8 +2230,11 @@
       <c r="E28">
         <v>173.97196199999499</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28">
+        <v>65.573960000008796</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>2800</v>
@@ -1958,8 +2251,11 @@
       <c r="E29">
         <v>185.35394499999501</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29">
+        <v>68.595767000006106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>2900</v>
@@ -1976,8 +2272,11 @@
       <c r="E30">
         <v>197.227839999992</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30">
+        <v>71.595941999999894</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>3000</v>
@@ -1994,8 +2293,11 @@
       <c r="E31">
         <v>209.37482199999701</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31">
+        <v>74.501391000012504</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="B32" s="1"/>
     </row>
   </sheetData>

--- a/stats/stats.xlsx
+++ b/stats/stats.xlsx
@@ -1193,11 +1193,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2079353944"/>
-        <c:axId val="2123622264"/>
+        <c:axId val="2080754856"/>
+        <c:axId val="2114296024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2079353944"/>
+        <c:axId val="2080754856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1226,7 +1226,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2123622264"/>
+        <c:crossAx val="2114296024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1234,7 +1234,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2123622264"/>
+        <c:axId val="2114296024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1264,7 +1264,1194 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2079353944"/>
+        <c:crossAx val="2080754856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Rate @ 50</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Ember 1.4</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2600.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2700.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2800.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>2.29023400000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.54944200000318</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8264019999915</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.09822699999495</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.3923329999961</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.7014930000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.0234329999948</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.3126649999903</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.6513169999961</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.944239999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25.2865619999938</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27.6265859999984</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29.9653560000006</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32.4098299999896</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34.8912069999933</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37.4611769999901</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39.9626439999992</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42.508680999992</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45.137189999994</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>47.8311390000017</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>50.5881769999978</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>53.3732619999937</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>56.2058109999925</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>59.1130160000029</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>62.0811759999924</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>65.0537489999987</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>68.1051719999959</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>71.249364999996</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>74.4522969999961</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>77.7487009999895</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Angular 1.2</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2600.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2700.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2800.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>2.30596800000057</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.68889499999932</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.21213400000124</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.91686899999331</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.8158239999902</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.940770000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.2869470000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.8593499999988</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26.5307249999896</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30.4614710000023</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34.6916879999917</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39.0537649999896</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43.6388009999936</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>48.5283049999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>53.6245599999965</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>58.959447000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>64.7334859999973</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>70.5060549999907</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>76.4817489999986</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>82.74597799999169</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>89.3938919999927</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>96.1785279999894</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>103.237433999995</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>110.614707</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>118.093577999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>125.925954999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>134.008726999993</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>142.399211999989</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>151.000535999992</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>159.932589999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Knockout 3.0.0</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2600.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2700.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2800.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>2.3030460000009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.64736899999843</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.99755699999514</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.32303100000717</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.6687160000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.0283469999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.4621929999993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.9707930000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21.5496399999974</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24.2176360000012</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26.8630379999958</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30.3096630000072</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>33.895463000008</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37.5980640000052</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41.3601270000071</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45.2322339999955</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>49.2524019999982</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>53.3976410000032</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>57.6004510000057</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>61.9763249999959</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>66.4781159999984</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>71.1974069999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>75.9332960000028</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>80.7662689999997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>85.70317100000101</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>90.7392430000036</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>96.0147940000024</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>100.621606</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>106.164929000005</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>111.82862</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>React 0.9</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2600.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2700.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2800.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>2.25683899999421</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.52111599998897</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.01030799999716</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.810107999990571</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.9935859999968</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.4373559999949</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.2479359999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.2948179999948</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28.7926759999973</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33.6440690000017</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38.9572990000015</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44.5030499999993</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50.3949319999956</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>56.6365569999907</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>63.1998469999962</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>70.1122979999927</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>77.6541539999889</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>85.4920409999904</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>93.7806579999887</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>102.385813999993</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>112.468689999994</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>121.805467999991</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>131.61403099999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>141.751686999996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>152.119379999989</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>162.840926999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>173.971961999995</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>185.353944999995</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>197.227839999992</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>209.374821999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>BasisJS 1.2.1</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2600.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2700.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2800.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>2.12932100000034</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.26149499999883</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.39365300000645</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.52995799999917</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.6594190000032</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.7794950000097</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.8970560000016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.0293789999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.1568210000114</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.2788370000052</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23.431036000009</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25.6175840000069</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27.8287740000087</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30.1142360000085</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32.5385640000022</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35.0100310000125</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>37.5635380000021</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40.1098860000056</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42.6691490000084</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45.4794970000075</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>48.4252190000115</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>51.3662890000123</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>54.1453340000007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>56.9216110000124</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>59.7877860000007</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>62.6584419999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>65.5739600000088</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>68.59576700000611</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>71.59594199999989</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>74.5013910000125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2130517192"/>
+        <c:axId val="2127757880"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2130517192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Amount of Records</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2127757880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2127757880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time, sec</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2130517192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1313,6 +2500,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3" title="Ember vs. Angular"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1645,8 +2864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
